--- a/Clue_Board/clueboard.xlsx
+++ b/Clue_Board/clueboard.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="clueboard" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>DD</t>
   </si>
   <si>
-    <t>RD</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>SU</t>
+  </si>
+  <si>
+    <t>RU</t>
   </si>
 </sst>
 </file>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>1</v>
@@ -867,7 +867,7 @@
       <c r="Q5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="S5" s="5" t="s">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
@@ -1305,11 +1305,11 @@
       <c r="U11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="V11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>10</v>
+      <c r="V11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1317,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
@@ -1362,25 +1362,25 @@
         <v>1</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1424,34 +1424,34 @@
         <v>1</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1474,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>1</v>
@@ -1495,34 +1495,34 @@
         <v>1</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1566,42 +1566,42 @@
         <v>1</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1</v>
@@ -1625,13 +1625,13 @@
         <v>1</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>1</v>
@@ -1669,40 +1669,40 @@
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>1</v>
@@ -1717,10 +1717,10 @@
         <v>1</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S17" s="5" t="s">
         <v>1</v>
@@ -1740,215 +1740,215 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
